--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199270.6014705207</v>
+        <v>199662.1550749854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829998</v>
+        <v>12617883.90382515</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.8018774</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6038078.853408325</v>
+        <v>6169265.326272758</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>133.8922310854149</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5116906995513</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +740,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>44.39495102751399</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -820,16 +822,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>68.27578226575797</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>2.978362310752086</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -880,7 +882,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>340.511690699551</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E5" t="n">
-        <v>35.84715600543174</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="F5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>133.3025800044087</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>62.17807828502646</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>112.4348987504505</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C8" t="n">
-        <v>390.1527797502169</v>
+        <v>343.6465684039908</v>
       </c>
       <c r="D8" t="n">
-        <v>35.84715600543184</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>159.6908732144031</v>
+        <v>52.78076342756855</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>193.5927947728083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>96.07643038288654</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="H11" t="n">
-        <v>209.7183039501508</v>
+        <v>259.892951821185</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>121.1131176855847</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
-        <v>175.414407042274</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751807</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E14" t="n">
-        <v>390.1527797502169</v>
+        <v>343.6465684039909</v>
       </c>
       <c r="F14" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G14" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>35.84715600543174</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,10 +1691,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>15.09023863101106</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580465</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8296905607018</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>388.3430365919145</v>
       </c>
       <c r="E17" t="n">
-        <v>343.646568403991</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>390.1527797502169</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1926,22 +1928,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>170.4449634997913</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>102.0429695167485</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2059,13 +2061,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>90.6928079498296</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>40.39502321397722</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2178,7 +2180,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>130.0386824366354</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>54.68688746169084</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2327,10 +2329,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>32.82519346706945</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>65.8772137994569</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>219.0202303825988</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>393.9470907639073</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.0567315366195</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>65.42520756919144</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2770,10 +2772,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>136.1769805884549</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>21.98018821126708</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>2.116870328528366</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,13 +2952,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>85.25432609134897</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097036</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3029,22 +3031,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>403.2658873081451</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>21.59422265463138</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3193,19 +3195,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.72356368083136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9225842721944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3268,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>137.979237339074</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>40.39502321397677</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>12.68843489334725</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>267.6356950586111</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>72.32621505693589</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103017</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3670,16 +3672,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>70.29200521525082</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.520379132636</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>198.3987443462405</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3803,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6816128081183</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
@@ -3958,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672388</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>35.84715600543174</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>209.234647520558</v>
       </c>
     </row>
     <row r="45">
@@ -4062,19 +4064,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>18.64994027580487</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>141.0112212226575</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1560.611119000868</v>
+        <v>425.3059392994283</v>
       </c>
       <c r="C2" t="n">
-        <v>1560.611119000868</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D2" t="n">
-        <v>1560.611119000868</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.659916274048</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>822.5661993546372</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
@@ -4331,49 +4333,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>417.463474332732</v>
       </c>
       <c r="L2" t="n">
-        <v>417.4634743327321</v>
+        <v>417.463474332732</v>
       </c>
       <c r="M2" t="n">
-        <v>803.7147262854468</v>
+        <v>466.947608300146</v>
       </c>
       <c r="N2" t="n">
-        <v>812.642214563296</v>
+        <v>853.1988602528606</v>
       </c>
       <c r="O2" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="P2" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205575</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U2" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V2" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W2" t="n">
-        <v>1560.611119000868</v>
+        <v>954.6443340828948</v>
       </c>
       <c r="X2" t="n">
-        <v>1560.611119000868</v>
+        <v>954.6443340828948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1560.611119000868</v>
+        <v>560.5506171634838</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369017</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>148.1093801606249</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
@@ -4410,49 +4412,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>438.2641504114549</v>
+        <v>401.8573631427233</v>
       </c>
       <c r="L3" t="n">
-        <v>438.2641504114549</v>
+        <v>401.8573631427233</v>
       </c>
       <c r="M3" t="n">
-        <v>438.2641504114549</v>
+        <v>788.1086150954379</v>
       </c>
       <c r="N3" t="n">
-        <v>438.2641504114549</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O3" t="n">
-        <v>824.5154023641696</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S3" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U3" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1399.307206663087</v>
+        <v>882.2169074334367</v>
       </c>
       <c r="W3" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697655</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086583</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724883</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>869.1060495044621</v>
+        <v>630.7621873641455</v>
       </c>
       <c r="C4" t="n">
-        <v>698.0126770661786</v>
+        <v>459.668814925862</v>
       </c>
       <c r="D4" t="n">
-        <v>698.0126770661786</v>
+        <v>300.174170248772</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0472404340999</v>
+        <v>300.174170248772</v>
       </c>
       <c r="F4" t="n">
-        <v>464.4161145446911</v>
+        <v>300.174170248772</v>
       </c>
       <c r="G4" t="n">
         <v>297.1657234702345</v>
@@ -4483,7 +4485,7 @@
         <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
         <v>45.29477178522787</v>
@@ -4504,34 +4506,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W4" t="n">
         <v>1281.541454509742</v>
       </c>
       <c r="X4" t="n">
-        <v>1281.541454509742</v>
+        <v>1043.197592369425</v>
       </c>
       <c r="Y4" t="n">
-        <v>1056.805755898507</v>
+        <v>818.4618937581898</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="C5" t="n">
-        <v>1166.517402081457</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="D5" t="n">
-        <v>1166.517402081457</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="E5" t="n">
-        <v>1130.308153591121</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F5" t="n">
-        <v>736.2144366717104</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G5" t="n">
-        <v>342.1207197522994</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H5" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I5" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>361.3007174531584</v>
       </c>
       <c r="L5" t="n">
-        <v>1057.900197753201</v>
+        <v>747.551969405873</v>
       </c>
       <c r="M5" t="n">
-        <v>1444.151449705916</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N5" t="n">
-        <v>1520.054473311303</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710.0430642665517</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="C6" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D6" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E6" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F6" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G6" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H6" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4647,49 +4649,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M6" t="n">
-        <v>996.52758384808</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N6" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O6" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P6" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R6" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S6" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U6" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V6" t="n">
-        <v>1399.307206663087</v>
+        <v>1238.90958210821</v>
       </c>
       <c r="W6" t="n">
-        <v>1186.074038399415</v>
+        <v>1025.676413844539</v>
       </c>
       <c r="X6" t="n">
-        <v>1009.748056538308</v>
+        <v>849.3504319834315</v>
       </c>
       <c r="Y6" t="n">
-        <v>850.3460969021384</v>
+        <v>689.9484723472615</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1012.258839924715</v>
+        <v>577.986719343126</v>
       </c>
       <c r="C7" t="n">
-        <v>949.4527002428704</v>
+        <v>577.986719343126</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>577.986719343126</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>577.986719343126</v>
       </c>
       <c r="F7" t="n">
         <v>464.4161145446911</v>
@@ -4726,7 +4728,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L7" t="n">
         <v>459.7441997875264</v>
@@ -4747,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S7" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T7" t="n">
-        <v>1475.338400676267</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U7" t="n">
-        <v>1475.338400676267</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V7" t="n">
-        <v>1475.338400676267</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W7" t="n">
-        <v>1475.338400676267</v>
+        <v>577.986719343126</v>
       </c>
       <c r="X7" t="n">
-        <v>1236.994538535951</v>
+        <v>577.986719343126</v>
       </c>
       <c r="Y7" t="n">
-        <v>1012.258839924715</v>
+        <v>577.986719343126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772.4236851620456</v>
+        <v>378.3299682426344</v>
       </c>
       <c r="C8" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D8" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E8" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F8" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H8" t="n">
         <v>31.21222238001735</v>
@@ -4805,49 +4807,49 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>417.463474332732</v>
       </c>
       <c r="L8" t="n">
-        <v>31.21222238001735</v>
+        <v>803.7147262854467</v>
       </c>
       <c r="M8" t="n">
-        <v>417.4634743327321</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N8" t="n">
-        <v>803.7147262854468</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="O8" t="n">
-        <v>1189.965978238161</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X8" t="n">
-        <v>1166.517402081457</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.517402081457</v>
+        <v>772.4236851620453</v>
       </c>
     </row>
     <row r="9">
@@ -4866,7 +4868,7 @@
         <v>459.1508352348899</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>338.6580192272178</v>
       </c>
       <c r="F9" t="n">
         <v>229.6981394097224</v>
@@ -4875,7 +4877,7 @@
         <v>122.7080267240611</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4884,7 +4886,7 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>610.2763318953653</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L9" t="n">
         <v>610.2763318953653</v>
@@ -4893,28 +4895,28 @@
         <v>996.52758384808</v>
       </c>
       <c r="N9" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O9" t="n">
-        <v>1144.800347685523</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V9" t="n">
         <v>1399.307206663087</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297.1657234702345</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C10" t="n">
-        <v>297.1657234702345</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D10" t="n">
-        <v>297.1657234702345</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E10" t="n">
-        <v>297.1657234702345</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F10" t="n">
-        <v>297.1657234702345</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
         <v>31.21222238001735</v>
@@ -4963,7 +4965,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L10" t="n">
         <v>459.7441997875264</v>
@@ -4990,22 +4992,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U10" t="n">
-        <v>766.5997460790038</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V10" t="n">
-        <v>492.7140010185257</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W10" t="n">
-        <v>297.1657234702345</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X10" t="n">
-        <v>297.1657234702345</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="Y10" t="n">
-        <v>297.1657234702345</v>
+        <v>1191.899733179524</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1425.330043794968</v>
+        <v>774.1758351350672</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.330043794968</v>
+        <v>774.1758351350672</v>
       </c>
       <c r="D11" t="n">
-        <v>1425.330043794968</v>
+        <v>774.1758351350672</v>
       </c>
       <c r="E11" t="n">
-        <v>1031.236326875557</v>
+        <v>774.1758351350672</v>
       </c>
       <c r="F11" t="n">
-        <v>637.1426099561463</v>
+        <v>774.1758351350672</v>
       </c>
       <c r="G11" t="n">
-        <v>243.0488930367353</v>
+        <v>380.0821182156563</v>
       </c>
       <c r="H11" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
@@ -5042,28 +5044,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K11" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L11" t="n">
-        <v>803.7147262854468</v>
+        <v>361.3007174531584</v>
       </c>
       <c r="M11" t="n">
-        <v>1189.965978238161</v>
+        <v>747.551969405873</v>
       </c>
       <c r="N11" t="n">
-        <v>1520.054473311303</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O11" t="n">
-        <v>1520.054473311303</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P11" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q11" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R11" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S11" t="n">
         <v>1425.330043794968</v>
@@ -5072,19 +5074,19 @@
         <v>1425.330043794968</v>
       </c>
       <c r="U11" t="n">
-        <v>1425.330043794968</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="V11" t="n">
-        <v>1425.330043794968</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="W11" t="n">
-        <v>1425.330043794968</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="X11" t="n">
-        <v>1425.330043794968</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="Y11" t="n">
-        <v>1425.330043794968</v>
+        <v>1168.269552054478</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>210.9193151617967</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K12" t="n">
-        <v>610.2763318953653</v>
+        <v>417.463474332732</v>
       </c>
       <c r="L12" t="n">
-        <v>996.52758384808</v>
+        <v>803.7147262854467</v>
       </c>
       <c r="M12" t="n">
-        <v>996.52758384808</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N12" t="n">
-        <v>996.52758384808</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="O12" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P12" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R12" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S12" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V12" t="n">
-        <v>1186.074038399415</v>
+        <v>882.2169074334367</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697655</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086583</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724883</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.21222238001735</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C13" t="n">
-        <v>31.21222238001735</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D13" t="n">
-        <v>31.21222238001735</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E13" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F13" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G13" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H13" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5200,7 +5202,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K13" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L13" t="n">
         <v>459.7441997875264</v>
@@ -5227,22 +5229,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T13" t="n">
-        <v>1330.045340137049</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U13" t="n">
-        <v>1047.247192683173</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V13" t="n">
-        <v>773.3614476226949</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W13" t="n">
-        <v>494.2917831315693</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X13" t="n">
-        <v>255.9479209912527</v>
+        <v>1532.981477686434</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.21222238001735</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="C14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="D14" t="n">
-        <v>1524.401870510532</v>
+        <v>1166.517402081456</v>
       </c>
       <c r="E14" t="n">
-        <v>1130.308153591121</v>
+        <v>819.3996562188393</v>
       </c>
       <c r="F14" t="n">
-        <v>736.2144366717104</v>
+        <v>425.3059392994283</v>
       </c>
       <c r="G14" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H14" t="n">
         <v>31.21222238001735</v>
@@ -5276,52 +5278,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K14" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L14" t="n">
-        <v>285.3976938477716</v>
+        <v>417.463474332732</v>
       </c>
       <c r="M14" t="n">
-        <v>671.6489458004863</v>
+        <v>803.7147262854467</v>
       </c>
       <c r="N14" t="n">
-        <v>1057.900197753201</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O14" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q14" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R14" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Y14" t="n">
-        <v>1524.401870510532</v>
+        <v>1560.611119000867</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.9427749225932</v>
+        <v>300.942774922593</v>
       </c>
       <c r="C15" t="n">
-        <v>166.9477036715389</v>
+        <v>166.9477036715387</v>
       </c>
       <c r="D15" t="n">
-        <v>151.7050383876894</v>
+        <v>50.05054589093113</v>
       </c>
       <c r="E15" t="n">
         <v>31.21222238001735</v>
@@ -5355,34 +5357,34 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>417.4634743327321</v>
+        <v>758.5490957328079</v>
       </c>
       <c r="M15" t="n">
-        <v>438.2641504114549</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N15" t="n">
-        <v>438.2641504114549</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="O15" t="n">
-        <v>824.5154023641696</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P15" t="n">
-        <v>1210.766654316884</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q15" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R15" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T15" t="n">
         <v>1401.269255187876</v>
@@ -5391,16 +5393,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>990.2069173191283</v>
+        <v>990.206917319128</v>
       </c>
       <c r="W15" t="n">
-        <v>776.973749055457</v>
+        <v>776.9737490554568</v>
       </c>
       <c r="X15" t="n">
-        <v>600.6477671943499</v>
+        <v>600.6477671943496</v>
       </c>
       <c r="Y15" t="n">
-        <v>441.2458075581799</v>
+        <v>441.2458075581796</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>356.8764423036677</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="C16" t="n">
-        <v>198.4626134544739</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="D16" t="n">
-        <v>198.4626134544739</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="E16" t="n">
-        <v>198.4626134544739</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F16" t="n">
-        <v>198.4626134544739</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G16" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H16" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I16" t="n">
         <v>31.21222238001735</v>
@@ -5437,7 +5439,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K16" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L16" t="n">
         <v>459.7441997875264</v>
@@ -5458,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S16" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T16" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U16" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V16" t="n">
-        <v>1286.72537394039</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="W16" t="n">
-        <v>1007.655709449264</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="X16" t="n">
-        <v>769.3118473089473</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="Y16" t="n">
-        <v>544.576148697712</v>
+        <v>766.5997460790038</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.517402081457</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C17" t="n">
-        <v>1166.517402081457</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D17" t="n">
-        <v>1166.517402081457</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E17" t="n">
-        <v>819.3996562188394</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F17" t="n">
-        <v>425.3059392994284</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>417.4634743327321</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M17" t="n">
-        <v>803.7147262854468</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N17" t="n">
-        <v>1189.965978238161</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O17" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192.9527650369019</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>58.9576937858476</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D18" t="n">
-        <v>31.21222238001735</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E18" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F18" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G18" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H18" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K18" t="n">
-        <v>408.7046310488249</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7046310488249</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M18" t="n">
-        <v>408.7046310488249</v>
+        <v>704.723947463468</v>
       </c>
       <c r="N18" t="n">
-        <v>794.9558830015396</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O18" t="n">
-        <v>794.9558830015396</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P18" t="n">
-        <v>1181.207134954254</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q18" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>492.6577573086585</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>333.2557976724885</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>298.9170548520003</v>
+        <v>638.3066038351926</v>
       </c>
       <c r="C19" t="n">
-        <v>298.9170548520003</v>
+        <v>467.2132313969092</v>
       </c>
       <c r="D19" t="n">
-        <v>298.9170548520003</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="E19" t="n">
-        <v>298.9170548520003</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="F19" t="n">
-        <v>134.2859289625916</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="G19" t="n">
-        <v>31.21222238001735</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1374.219350880778</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1134.67061185748</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>851.872464403604</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>577.986719343126</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W19" t="n">
-        <v>298.9170548520003</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="X19" t="n">
-        <v>298.9170548520003</v>
+        <v>810.4732336329616</v>
       </c>
       <c r="Y19" t="n">
-        <v>298.9170548520003</v>
+        <v>810.4732336329616</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5731,46 @@
         <v>451.8896763163319</v>
       </c>
       <c r="C20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M20" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N20" t="n">
-        <v>1846.479361096332</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O20" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
         <v>2047.697635790537</v>
@@ -5777,19 +5779,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="U20" t="n">
-        <v>2088.254281480102</v>
+        <v>1996.645384561082</v>
       </c>
       <c r="V20" t="n">
-        <v>2047.45122772861</v>
+        <v>1646.807829897563</v>
       </c>
       <c r="W20" t="n">
-        <v>1663.690926863779</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="X20" t="n">
         <v>1263.047529032731</v>
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M21" t="n">
-        <v>537.7254774811262</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N21" t="n">
-        <v>1054.568412147451</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O21" t="n">
-        <v>1571.411346813777</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q21" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5862,7 +5864,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V21" t="n">
         <v>1409.860069912671</v>
@@ -5874,7 +5876,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>865.1454348405214</v>
+        <v>1288.042607394784</v>
       </c>
       <c r="C22" t="n">
-        <v>694.0520624022379</v>
+        <v>1288.042607394784</v>
       </c>
       <c r="D22" t="n">
-        <v>534.5574177251478</v>
+        <v>1288.042607394784</v>
       </c>
       <c r="E22" t="n">
-        <v>373.6466025934674</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F22" t="n">
-        <v>209.0154767040586</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960205</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L22" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M22" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N22" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O22" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P22" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="W22" t="n">
-        <v>1515.924701986118</v>
+        <v>1526.3864695351</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.580839845801</v>
+        <v>1288.042607394784</v>
       </c>
       <c r="Y22" t="n">
-        <v>1052.845141234566</v>
+        <v>1288.042607394784</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1690.327927173125</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C23" t="n">
-        <v>1690.327927173125</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>497.1688317915616</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.011766457887</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>1530.854701124212</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6023,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>2055.097520402254</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>1671.337219537422</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="Y23" t="n">
-        <v>1690.327927173125</v>
+        <v>1270.693821706375</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L24" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962253</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6102,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.3070266506913</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C25" t="n">
-        <v>367.3070266506913</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D25" t="n">
-        <v>367.3070266506913</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E25" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6172,25 +6174,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>862.4253276531883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V25" t="n">
-        <v>588.5395825927103</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W25" t="n">
-        <v>367.3070266506913</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X25" t="n">
-        <v>367.3070266506913</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y25" t="n">
-        <v>367.3070266506913</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1690.327927173125</v>
+        <v>1287.260303845748</v>
       </c>
       <c r="C26" t="n">
-        <v>1690.327927173125</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.863997266186</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>176.0078249962696</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L26" t="n">
-        <v>692.8507596625949</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M26" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6266,10 +6268,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X26" t="n">
-        <v>2088.254281480102</v>
+        <v>1688.196976897658</v>
       </c>
       <c r="Y26" t="n">
-        <v>2088.254281480102</v>
+        <v>1287.260303845748</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L27" t="n">
-        <v>751.4208778585605</v>
+        <v>704.723947463468</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524886</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O27" t="n">
-        <v>1541.851827451147</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6339,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="C28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="D28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="E28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="F28" t="n">
-        <v>992.0592770239257</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="G28" t="n">
-        <v>824.8088859494691</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="H28" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M28" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N28" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O28" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P28" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q28" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S28" t="n">
-        <v>1816.589795035412</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T28" t="n">
-        <v>1577.041056012114</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U28" t="n">
-        <v>1294.242908558238</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V28" t="n">
-        <v>1156.690402913334</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y28" t="n">
-        <v>1156.690402913334</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.850582784223</v>
+        <v>1274.958175906603</v>
       </c>
       <c r="C29" t="n">
-        <v>893.7259920974935</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="D29" t="n">
-        <v>893.7259920974935</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E29" t="n">
-        <v>893.7259920974935</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F29" t="n">
-        <v>472.6955800511811</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>63.96729594401324</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M29" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N29" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6500,13 +6502,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X29" t="n">
-        <v>1303.850582784223</v>
+        <v>2086.116028623002</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.850582784223</v>
+        <v>1685.179355571093</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>537.7254774811266</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M30" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N30" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P30" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6573,19 +6575,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>644.9708657596044</v>
+        <v>1050.354217106305</v>
       </c>
       <c r="C31" t="n">
-        <v>558.8553848592519</v>
+        <v>879.2608446680219</v>
       </c>
       <c r="D31" t="n">
-        <v>558.8553848592519</v>
+        <v>719.7661999909319</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J31" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M31" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P31" t="n">
         <v>2022.726251677591</v>
@@ -6649,22 +6651,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T31" t="n">
-        <v>1848.705542456804</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U31" t="n">
-        <v>1848.705542456804</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V31" t="n">
-        <v>1574.819797396326</v>
+        <v>1980.203148743027</v>
       </c>
       <c r="W31" t="n">
-        <v>1295.750132905201</v>
+        <v>1701.133484251902</v>
       </c>
       <c r="X31" t="n">
-        <v>1057.406270764884</v>
+        <v>1462.789622111585</v>
       </c>
       <c r="Y31" t="n">
-        <v>832.6705721536488</v>
+        <v>1238.05392350035</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>893.3361278988716</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C32" t="n">
-        <v>893.3361278988716</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D32" t="n">
-        <v>893.3361278988716</v>
+        <v>863.4445812219428</v>
       </c>
       <c r="E32" t="n">
-        <v>893.3361278988716</v>
+        <v>449.1043657388395</v>
       </c>
       <c r="F32" t="n">
-        <v>472.3057158525592</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>63.57743174539132</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M32" t="n">
+        <v>812.7934917636815</v>
+      </c>
+      <c r="N32" t="n">
         <v>1329.636426430007</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1329.636426430007</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1846.479361096332</v>
       </c>
       <c r="O32" t="n">
         <v>1846.479361096332</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6737,13 +6739,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.493980615271</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y32" t="n">
-        <v>1303.557307563361</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1659581184966</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.008892784822</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N33" t="n">
-        <v>1541.851827451147</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O33" t="n">
         <v>2058.694762117472</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>889.4434019746254</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="C34" t="n">
-        <v>718.3500295363419</v>
+        <v>877.7237233349947</v>
       </c>
       <c r="D34" t="n">
-        <v>558.8553848592519</v>
+        <v>718.2290786579047</v>
       </c>
       <c r="E34" t="n">
-        <v>558.8553848592519</v>
+        <v>557.3182635262242</v>
       </c>
       <c r="F34" t="n">
-        <v>558.8553848592519</v>
+        <v>392.6871376368155</v>
       </c>
       <c r="G34" t="n">
-        <v>558.8553848592519</v>
+        <v>225.4367465623589</v>
       </c>
       <c r="H34" t="n">
-        <v>558.8553848592519</v>
+        <v>75.82929136781553</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U34" t="n">
-        <v>1805.456134026226</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V34" t="n">
-        <v>1531.570388965748</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W34" t="n">
-        <v>1531.570388965748</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="X34" t="n">
-        <v>1293.226526825432</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="Y34" t="n">
-        <v>1077.14310836867</v>
+        <v>1048.817095773278</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1281.599643065957</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C35" t="n">
-        <v>1281.599643065957</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D35" t="n">
-        <v>877.1357131590178</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E35" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L35" t="n">
-        <v>558.6080202959273</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.450954962253</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N35" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6965,22 +6967,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T35" t="n">
-        <v>1948.881314470937</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U35" t="n">
-        <v>1691.820822730447</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V35" t="n">
-        <v>1691.820822730447</v>
+        <v>2047.45122772861</v>
       </c>
       <c r="W35" t="n">
-        <v>1691.820822730447</v>
+        <v>1663.690926863779</v>
       </c>
       <c r="X35" t="n">
-        <v>1691.820822730447</v>
+        <v>1263.047529032731</v>
       </c>
       <c r="Y35" t="n">
-        <v>1691.820822730447</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G36" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L36" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M36" t="n">
-        <v>1221.566882129794</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.566882129794</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O36" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P36" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q36" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7050,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="W37" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>722.2287622341209</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="C38" t="n">
-        <v>312.104171547391</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960205</v>
+        <v>950.1924960448116</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960205</v>
+        <v>535.8522805617083</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960205</v>
+        <v>114.8218685153959</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M38" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N38" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O38" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7202,22 +7204,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U38" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V38" t="n">
-        <v>1516.210242763442</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W38" t="n">
-        <v>1132.44994189861</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X38" t="n">
-        <v>1132.44994189861</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="Y38" t="n">
-        <v>1132.44994189861</v>
+        <v>1354.656425951751</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="M39" t="n">
-        <v>751.4208778585605</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N39" t="n">
-        <v>1025.008892784822</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O39" t="n">
-        <v>1541.851827451147</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P39" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q39" t="n">
         <v>2058.694762117472</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>604.2659433466064</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C40" t="n">
-        <v>433.1725709083229</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D40" t="n">
-        <v>273.6779262312329</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>112.7671110995524</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W40" t="n">
-        <v>1016.701348351886</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.701348351886</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="Y40" t="n">
-        <v>791.9656497406507</v>
+        <v>1292.094317759326</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1167.262103595554</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C41" t="n">
-        <v>757.1375129088235</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D41" t="n">
         <v>352.673583001884</v>
@@ -7403,31 +7405,31 @@
         <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M41" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N41" t="n">
-        <v>1250.250340018485</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
         <v>2088.254281480102</v>
@@ -7442,19 +7444,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1887.851509413192</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.416726816583</v>
+        <v>1538.013954749673</v>
       </c>
       <c r="W41" t="n">
-        <v>1354.656425951752</v>
+        <v>1154.253653884841</v>
       </c>
       <c r="X41" t="n">
-        <v>1354.656425951752</v>
+        <v>753.6102560537939</v>
       </c>
       <c r="Y41" t="n">
-        <v>1354.656425951752</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q42" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7521,19 +7523,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U42" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>315.5671578740656</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="C43" t="n">
-        <v>144.4737854357821</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L43" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M43" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N43" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O43" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P43" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q43" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1565.907395002928</v>
       </c>
       <c r="V43" t="n">
-        <v>503.2668642681101</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W43" t="n">
-        <v>503.2668642681101</v>
+        <v>1012.951985451324</v>
       </c>
       <c r="X43" t="n">
-        <v>503.2668642681101</v>
+        <v>774.6081233110078</v>
       </c>
       <c r="Y43" t="n">
-        <v>503.2668642681101</v>
+        <v>558.8553848592514</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>736.2144366717104</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="C44" t="n">
-        <v>736.2144366717104</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>31.21222238001735</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>401.8573631427234</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>788.1086150954382</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M44" t="n">
-        <v>1174.359867048153</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N44" t="n">
-        <v>1560.611119000868</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O44" t="n">
-        <v>1560.611119000868</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P44" t="n">
-        <v>1560.611119000868</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U44" t="n">
-        <v>1524.401870510532</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1524.401870510532</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W44" t="n">
-        <v>1524.401870510532</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X44" t="n">
-        <v>1130.308153591121</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y44" t="n">
-        <v>736.2144366717104</v>
+        <v>128.1168483125289</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>300.9427749225932</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>166.9477036715389</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>50.05054589093136</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>31.21222238001735</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>31.21222238001735</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>31.21222238001735</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>372.2978437800934</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>372.2978437800934</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>758.5490957328082</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N45" t="n">
-        <v>1144.800347685523</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O45" t="n">
-        <v>1144.800347685523</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P45" t="n">
-        <v>1531.051599638238</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638238</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.2458075581799</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>670.2831128319734</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>499.1897403936899</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>499.1897403936899</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>338.2789252620094</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>173.6477993726007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.06237997757</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>1321.06237997757</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>1321.06237997757</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>1321.06237997757</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>1082.718517837253</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>857.9828192260178</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>143.274198161504</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9299556837397</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O2" t="n">
         <v>483.342555376</v>
@@ -8000,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>272.2288842682561</v>
+        <v>235.4543516735777</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O3" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>422.5591119693192</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M5" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
-        <v>169.5820115701414</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8295,7 +8297,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L6" t="n">
         <v>446.2673035610659</v>
@@ -8304,16 +8306,16 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
-        <v>239.7383945110979</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>207.5219475226693</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8453,22 +8455,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M8" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>101.9299556837396</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>102.6670282080047</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8532,22 +8534,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N9" t="n">
-        <v>202.9638619164196</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>207.5219475226693</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8690,22 +8692,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>485.6381778130617</v>
+        <v>428.9081203589469</v>
       </c>
       <c r="M11" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>426.3350130527216</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
@@ -8766,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9785625348323</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L12" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>397.7243241008974</v>
       </c>
       <c r="O12" t="n">
-        <v>244.2964801173478</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M14" t="n">
         <v>483.4430042072623</v>
@@ -8939,10 +8941,10 @@
         <v>483.0650705068362</v>
       </c>
       <c r="O14" t="n">
-        <v>169.8594964393052</v>
+        <v>426.6124979218852</v>
       </c>
       <c r="P14" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L15" t="n">
-        <v>446.2673035610659</v>
+        <v>205.8849923335184</v>
       </c>
       <c r="M15" t="n">
-        <v>78.57506765631931</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,16 +9169,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M17" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>426.6124979218854</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9185,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>437.1312460864413</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>265.359579940715</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O20" t="n">
-        <v>296.4405581451824</v>
+        <v>228.7885022587805</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9483,25 +9485,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M21" t="n">
-        <v>558.5343765177347</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,16 +9643,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9659,7 +9661,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>334.1030092285466</v>
       </c>
       <c r="P24" t="n">
-        <v>555.2297277821215</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>208.9223179663055</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O26" t="n">
         <v>93.18977562578313</v>
@@ -9893,7 +9895,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>265.359579940715</v>
       </c>
       <c r="M27" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>334.1030092285466</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O29" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>362.3241544056888</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>200.7852390175286</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10349,28 +10351,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>296.9001458002834</v>
+        <v>337.8664545776215</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>527.2265162238739</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>395.5690244730511</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>298.7361805822438</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O35" t="n">
-        <v>228.7885022587807</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M36" t="n">
-        <v>532.4592375477438</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>528.8634714130245</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O38" t="n">
-        <v>269.754811036119</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
@@ -10908,19 +10910,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>329.5449236222969</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>576.3232053728293</v>
+        <v>171.9933802602894</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>535.1658287548267</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>593.8823835359368</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>555.2297277821215</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>463.5254207466576</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>400.3567134917629</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>272.2267367824296</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964572</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>69.68512262872099</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173965</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22628,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>88.26016951102974</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22708,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>91.02592471460575</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.5995248529599</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>65.51165408031153</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>10.2665108576532</v>
       </c>
       <c r="E5" t="n">
-        <v>374.3496573228405</v>
+        <v>20.04403357805541</v>
       </c>
       <c r="F5" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.597422304822089</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -22920,7 +22922,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22942,16 +22944,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>107.2043604288742</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>50.54991588006418</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>15.96618811762772</v>
       </c>
       <c r="C8" t="n">
-        <v>15.87056502964566</v>
+        <v>62.37677637587171</v>
       </c>
       <c r="D8" t="n">
-        <v>364.5721346024382</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -23036,7 +23038,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23084,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520089</v>
+        <v>6.484184102520146</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173965</v>
       </c>
     </row>
     <row r="9">
@@ -23148,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -23157,7 +23159,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>51.88353852249338</v>
+        <v>158.7936483093279</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23230,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>82.68617307340608</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>126.4119112422364</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762772</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23264,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>14.48822151587922</v>
+        <v>14.48822151587927</v>
       </c>
       <c r="H11" t="n">
-        <v>98.08110844840843</v>
+        <v>47.90646057737422</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>17.78688462364607</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>36.16000469462253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884234</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,19 +23500,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>10.2665108576532</v>
       </c>
       <c r="E14" t="n">
-        <v>20.04403357805535</v>
+        <v>66.55024492428134</v>
       </c>
       <c r="F14" t="n">
-        <v>26.66732817563241</v>
+        <v>26.66732817563246</v>
       </c>
       <c r="G14" t="n">
-        <v>14.48822151587922</v>
+        <v>14.48822151587927</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23549,7 +23551,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>218.6427308176532</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23577,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>100.6379475717906</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>12.55274815319888</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190884</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>12.07625401595556</v>
       </c>
       <c r="E17" t="n">
-        <v>66.55024492428123</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.66732817563241</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23814,22 +23816,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>15.37774583031262</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>63.53491764696352</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>43.23545650401054</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -24026,13 +24028,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>305.9441559029069</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>29.26302454372831</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5920803845235</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24206,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>313.5139856498147</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.980215557483461</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>93.42449318090682</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,25 +24414,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>57.2587374636156</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.17187710393722</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -24506,10 +24508,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0.5802323161174741</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24610,13 +24612,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>82.68617307340647</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>134.9699070214184</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>285.8192241872921</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24740,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>394.5200935242086</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.12811262255168</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24889,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>164.1762662001697</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>13.55422061770417</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2051897439278</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24977,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>81.45902175588574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.565757352928529</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25205,22 +25207,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>82.00518187353575</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>305.9441559029074</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25363,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25375,10 +25377,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176236</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>209.7999067317757</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>132.7835955492589</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>332.3147862091602</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25442,7 +25444,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>26.43728131980222</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>92.69280941526382</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.5985887352085</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -25682,7 +25684,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>56.09114247684448</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>56.2180854222008</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788412</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25880,10 +25882,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>218.6427308176532</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>187.6926588008328</v>
       </c>
     </row>
     <row r="45">
@@ -25950,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>100.6379475717904</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>24.56666594105454</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477320.2130243666</v>
+        <v>477320.2130243665</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477320.2130243665</v>
+        <v>477320.2130243666</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477320.2130243666</v>
+        <v>477320.2130243665</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477320.2130243666</v>
+        <v>477320.2130243665</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477320.2130243666</v>
+        <v>571064.8661635029</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>571064.8661635028</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571064.8661635027</v>
+        <v>571064.8661635026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571064.8661635029</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571064.8661635027</v>
+        <v>571064.8661635029</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477320.2130243666</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95419.15860937598</v>
+        <v>95419.15860937595</v>
       </c>
       <c r="C2" t="n">
-        <v>95419.15860937601</v>
+        <v>95419.15860937595</v>
       </c>
       <c r="D2" t="n">
-        <v>95419.15860937601</v>
+        <v>95419.15860937595</v>
       </c>
       <c r="E2" t="n">
         <v>95419.15860937597</v>
       </c>
       <c r="F2" t="n">
-        <v>95419.158609376</v>
+        <v>95419.15860937597</v>
       </c>
       <c r="G2" t="n">
-        <v>95419.158609376</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="H2" t="n">
         <v>114155.4085116631</v>
@@ -26335,16 +26337,16 @@
         <v>114155.4085116631</v>
       </c>
       <c r="J2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="K2" t="n">
         <v>114155.4085116631</v>
       </c>
       <c r="L2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="M2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="N2" t="n">
         <v>114155.4085116631</v>
@@ -26353,7 +26355,7 @@
         <v>114155.4085116631</v>
       </c>
       <c r="P2" t="n">
-        <v>95419.158609376</v>
+        <v>114155.4085116631</v>
       </c>
     </row>
     <row r="3">
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703025</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049658</v>
+        <v>102081.1339049657</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344756</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26432,7 @@
         <v>16465.93465315062</v>
       </c>
       <c r="G4" t="n">
-        <v>16465.93465315062</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="H4" t="n">
         <v>19747.62995624142</v>
@@ -26448,16 +26450,16 @@
         <v>19747.62995624142</v>
       </c>
       <c r="M4" t="n">
-        <v>19747.62995624142</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="N4" t="n">
         <v>19747.62995624142</v>
       </c>
       <c r="O4" t="n">
-        <v>19747.62995624142</v>
+        <v>19747.62995624141</v>
       </c>
       <c r="P4" t="n">
-        <v>16465.93465315062</v>
+        <v>19747.62995624141</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881319</v>
+        <v>57348.88900881318</v>
       </c>
       <c r="C5" t="n">
-        <v>57348.88900881319</v>
+        <v>57348.88900881318</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>57348.88900881318</v>
       </c>
       <c r="E5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="F5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-109144.8350608198</v>
       </c>
       <c r="C6" t="n">
-        <v>21604.33494741219</v>
+        <v>21604.33494741216</v>
       </c>
       <c r="D6" t="n">
-        <v>21604.33494741221</v>
+        <v>21604.33494741216</v>
       </c>
       <c r="E6" t="n">
         <v>55231.93494741217</v>
       </c>
       <c r="F6" t="n">
-        <v>55231.9349474122</v>
+        <v>55231.93494741217</v>
       </c>
       <c r="G6" t="n">
-        <v>55231.9349474122</v>
+        <v>26511.54442989387</v>
       </c>
       <c r="H6" t="n">
-        <v>27075.59497058418</v>
+        <v>62666.3134769241</v>
       </c>
       <c r="I6" t="n">
-        <v>62666.31347692416</v>
+        <v>62666.31347692414</v>
       </c>
       <c r="J6" t="n">
-        <v>-39414.82042804162</v>
+        <v>-39414.82042804165</v>
       </c>
       <c r="K6" t="n">
-        <v>62666.31347692414</v>
+        <v>62666.31347692413</v>
       </c>
       <c r="L6" t="n">
-        <v>62666.31347692414</v>
+        <v>62666.31347692406</v>
       </c>
       <c r="M6" t="n">
-        <v>62666.31347692414</v>
+        <v>62666.31347692408</v>
       </c>
       <c r="N6" t="n">
-        <v>62666.31347692414</v>
+        <v>62666.31347692413</v>
       </c>
       <c r="O6" t="n">
-        <v>62666.3134769241</v>
+        <v>30921.84980347654</v>
       </c>
       <c r="P6" t="n">
-        <v>55231.9349474122</v>
+        <v>62666.31347692412</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="E4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="F4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>390.1527797502169</v>
+        <v>49.98397370445857</v>
       </c>
       <c r="N2" t="n">
-        <v>9.017664927120396</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>216.4031014836407</v>
+        <v>179.6285688889623</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961021</v>
       </c>
       <c r="L5" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M5" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N5" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L6" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M6" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N6" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M8" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>9.017664927120283</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>9.017664927120512</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35252,22 +35254,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N9" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961021</v>
       </c>
       <c r="M11" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N11" t="n">
-        <v>333.4227222961023</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L12" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>344.5309307071474</v>
       </c>
       <c r="O12" t="n">
-        <v>186.5450011173479</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M14" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O14" t="n">
-        <v>76.66972081352203</v>
+        <v>333.4227222961021</v>
       </c>
       <c r="P14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L15" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226693</v>
       </c>
       <c r="M15" t="n">
-        <v>21.01078391790188</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,16 +35889,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>333.4227222961023</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>381.3054633018259</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>209.2450561298659</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O20" t="n">
-        <v>203.2507825193993</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M21" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="P24" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298659</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O29" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>306.2096305948397</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>203.2507825193993</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>471.1119924130248</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>338.0047407346337</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>203.250782519399</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O35" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M36" t="n">
-        <v>474.8949538093264</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="O38" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>276.3515302285469</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>522.0635703700256</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>441.8756042977813</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>344.5309307071475</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199662.1550749854</v>
+        <v>193204.979806105</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12617883.90382515</v>
+        <v>12617883.90382512</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10943609.97017262</v>
+        <v>10943609.97017261</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6169265.326272758</v>
+        <v>6169265.326272757</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.8922310854149</v>
+        <v>343.646568403991</v>
       </c>
       <c r="C2" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>44.39495102751399</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -819,10 +819,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.978362310752086</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>76.43104772188505</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C5" t="n">
-        <v>340.511690699551</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D5" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133.3025800044087</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -986,13 +986,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>4.026354378271734</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>116.9164035046652</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>112.4348987504505</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C8" t="n">
-        <v>343.6465684039908</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.7183039501509</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>43.79728017800302</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>52.78076342756855</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
-        <v>96.07643038288654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.6621491913813</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>259.892951821185</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>121.1131176855847</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>157.7484451748619</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>43.14382524393752</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1545,10 +1545,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.6465684039909</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>125.396777664673</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E15" t="n">
-        <v>18.64994027580465</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>30.52728906528336</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>136.1769805884549</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>388.3430365919145</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>128.8638208513455</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>170.4449634997913</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>37.94176388426398</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>235.7732749079386</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.6928079498296</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>130.0386824366354</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>29.06736062834933</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>215.9244776757571</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>32.82519346706945</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2478,22 +2478,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>65.8772137994569</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>87.45337212097851</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.8544435096203</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.0567315366195</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>65.42520756919144</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>192.4437943026815</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>55.56121945730634</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.116870328528366</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>106.9706214097036</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2658873081451</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>132.3926714738917</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3198,16 +3198,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>50.61035817443074</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>33.72356368083136</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>40.39502321397677</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>123.0062905467661</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>106.1194605417153</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>12.68843489334725</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>285.2408885615485</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>72.32621505693589</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>159.3854280103017</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>27.35946216248042</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>198.3987443462405</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>9.819230347808208</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672388</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>255.0575763197955</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>209.234647520558</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>425.3059392994283</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D2" t="n">
         <v>31.21222238001735</v>
@@ -4330,52 +4330,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>417.463474332732</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L2" t="n">
-        <v>417.463474332732</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="M2" t="n">
-        <v>466.947608300146</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="N2" t="n">
-        <v>853.1988602528606</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O2" t="n">
-        <v>1239.450112205575</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P2" t="n">
-        <v>1239.450112205575</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
-        <v>1560.611119000867</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R2" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T2" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>954.6443340828948</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>954.6443340828948</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.5506171634838</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.9527650369017</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C3" t="n">
-        <v>148.1093801606249</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D3" t="n">
-        <v>31.21222238001735</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E3" t="n">
         <v>31.21222238001735</v>
@@ -4412,49 +4412,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>401.8573631427233</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>401.8573631427233</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M3" t="n">
-        <v>788.1086150954379</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N3" t="n">
+        <v>788.1086150954382</v>
+      </c>
+      <c r="O3" t="n">
         <v>1174.359867048153</v>
       </c>
-      <c r="O3" t="n">
-        <v>1560.611119000867</v>
-      </c>
       <c r="P3" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302184</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V3" t="n">
-        <v>882.2169074334367</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W3" t="n">
-        <v>668.9837391697655</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X3" t="n">
-        <v>492.6577573086583</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.2557976724883</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.7621873641455</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="C4" t="n">
-        <v>459.668814925862</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="D4" t="n">
-        <v>300.174170248772</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="E4" t="n">
-        <v>300.174170248772</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="F4" t="n">
-        <v>300.174170248772</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>108.4153008869719</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
         <v>45.29477178522787</v>
@@ -4506,34 +4506,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P4" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q4" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000867</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000867</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000867</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.541454509742</v>
+        <v>759.1945680325682</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.197592369425</v>
+        <v>520.8507058922517</v>
       </c>
       <c r="Y4" t="n">
-        <v>818.4618937581898</v>
+        <v>296.1150072810163</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C5" t="n">
-        <v>1216.659916274048</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D5" t="n">
-        <v>822.5661993546371</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E5" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F5" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G5" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H5" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I5" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>361.3007174531584</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>747.551969405873</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M5" t="n">
+        <v>361.3007174531585</v>
+      </c>
+      <c r="N5" t="n">
+        <v>747.5519694058733</v>
+      </c>
+      <c r="O5" t="n">
         <v>1133.803221358588</v>
       </c>
-      <c r="N5" t="n">
-        <v>1133.803221358588</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1520.054473311302</v>
-      </c>
       <c r="P5" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W5" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>1560.611119000867</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y5" t="n">
-        <v>1560.611119000867</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555.2994016357376</v>
+        <v>406.6642920438682</v>
       </c>
       <c r="C6" t="n">
-        <v>555.2994016357376</v>
+        <v>272.6692207928139</v>
       </c>
       <c r="D6" t="n">
-        <v>438.40224385513</v>
+        <v>155.7720630122063</v>
       </c>
       <c r="E6" t="n">
-        <v>317.909427847458</v>
+        <v>35.27924700453426</v>
       </c>
       <c r="F6" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H6" t="n">
         <v>31.21222238001735</v>
@@ -4646,52 +4646,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K6" t="n">
-        <v>610.2763318953653</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L6" t="n">
-        <v>996.52758384808</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="M6" t="n">
-        <v>1382.778835800795</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="N6" t="n">
-        <v>1382.778835800795</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638237</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638237</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q6" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R6" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1452.621109115176</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V6" t="n">
-        <v>1238.90958210821</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W6" t="n">
-        <v>1025.676413844539</v>
+        <v>882.6952661767319</v>
       </c>
       <c r="X6" t="n">
-        <v>849.3504319834315</v>
+        <v>706.3692843156248</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.9484723472615</v>
+        <v>546.9673246794548</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>577.986719343126</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="C7" t="n">
-        <v>577.986719343126</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="D7" t="n">
-        <v>577.986719343126</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="E7" t="n">
-        <v>577.986719343126</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4728,7 +4728,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L7" t="n">
         <v>459.7441997875264</v>
@@ -4764,13 +4764,13 @@
         <v>577.986719343126</v>
       </c>
       <c r="W7" t="n">
-        <v>577.986719343126</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X7" t="n">
-        <v>577.986719343126</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="Y7" t="n">
-        <v>577.986719343126</v>
+        <v>298.9170548520003</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.3299682426344</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C8" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D8" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E8" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F8" t="n">
         <v>31.21222238001735</v>
@@ -4804,52 +4804,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K8" t="n">
-        <v>417.463474332732</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>803.7147262854467</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M8" t="n">
-        <v>1189.965978238161</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N8" t="n">
-        <v>1198.89346651601</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="O8" t="n">
-        <v>1198.89346651601</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.89346651601</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000867</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000867</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000867</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000867</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="X8" t="n">
-        <v>1166.517402081456</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="Y8" t="n">
-        <v>772.4236851620453</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272178</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G9" t="n">
         <v>122.7080267240611</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977717</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4886,49 +4886,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M9" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N9" t="n">
-        <v>1382.778835800795</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O9" t="n">
-        <v>1531.051599638237</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P9" t="n">
-        <v>1531.051599638237</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638237</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1452.621109115176</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y9" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1004.20002678548</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C10" t="n">
-        <v>833.1066543471966</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D10" t="n">
-        <v>673.6120096701065</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E10" t="n">
-        <v>512.7011945384261</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0700686490173</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G10" t="n">
-        <v>180.8196775745607</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
         <v>31.21222238001735</v>
@@ -4965,7 +4965,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L10" t="n">
         <v>459.7441997875264</v>
@@ -4992,22 +4992,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T10" t="n">
-        <v>1288.946632556178</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U10" t="n">
-        <v>1288.946632556178</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V10" t="n">
-        <v>1288.946632556178</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W10" t="n">
-        <v>1288.946632556178</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X10" t="n">
-        <v>1288.946632556178</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y10" t="n">
-        <v>1191.899733179524</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>774.1758351350672</v>
+        <v>550.2172011089044</v>
       </c>
       <c r="C11" t="n">
-        <v>774.1758351350672</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D11" t="n">
-        <v>774.1758351350672</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E11" t="n">
-        <v>774.1758351350672</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
-        <v>774.1758351350672</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G11" t="n">
-        <v>380.0821182156563</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H11" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I11" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J11" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K11" t="n">
-        <v>31.21222238001735</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="L11" t="n">
-        <v>361.3007174531584</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M11" t="n">
-        <v>747.551969405873</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="N11" t="n">
-        <v>1133.803221358588</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O11" t="n">
-        <v>1133.803221358588</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P11" t="n">
-        <v>1520.054473311302</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q11" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R11" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U11" t="n">
-        <v>1168.269552054478</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V11" t="n">
-        <v>1168.269552054478</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="W11" t="n">
-        <v>1168.269552054478</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="X11" t="n">
-        <v>1168.269552054478</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="Y11" t="n">
-        <v>1168.269552054478</v>
+        <v>944.3109180283154</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>210.9193151617967</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C12" t="n">
-        <v>210.9193151617967</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D12" t="n">
-        <v>210.9193151617967</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E12" t="n">
-        <v>210.9193151617967</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F12" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G12" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H12" t="n">
         <v>31.21222238001735</v>
@@ -5120,52 +5120,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>417.463474332732</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>803.7147262854467</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.965978238161</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.051599638237</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O12" t="n">
-        <v>1531.051599638237</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P12" t="n">
-        <v>1531.051599638237</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q12" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R12" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1293.279245302184</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U12" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V12" t="n">
-        <v>882.2169074334367</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W12" t="n">
-        <v>668.9837391697655</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X12" t="n">
-        <v>492.6577573086583</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y12" t="n">
-        <v>333.2557976724883</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.546072681154</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="C13" t="n">
-        <v>949.4527002428704</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D13" t="n">
-        <v>789.9580555657803</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E13" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F13" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5202,7 +5202,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K13" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L13" t="n">
         <v>459.7441997875264</v>
@@ -5223,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.611119000868</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.981477686434</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="Y13" t="n">
-        <v>1308.245779075198</v>
+        <v>727.0788206111761</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C14" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D14" t="n">
-        <v>1166.517402081456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E14" t="n">
-        <v>819.3996562188393</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F14" t="n">
-        <v>425.3059392994283</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G14" t="n">
         <v>31.21222238001735</v>
@@ -5278,52 +5278,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L14" t="n">
-        <v>417.463474332732</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M14" t="n">
-        <v>803.7147262854467</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N14" t="n">
-        <v>1189.965978238161</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O14" t="n">
-        <v>1520.054473311302</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311302</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q14" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R14" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S14" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U14" t="n">
-        <v>1560.611119000867</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.611119000867</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W14" t="n">
-        <v>1560.611119000867</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.611119000867</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.611119000867</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.942774922593</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C15" t="n">
-        <v>166.9477036715387</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D15" t="n">
-        <v>50.05054589093113</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E15" t="n">
         <v>31.21222238001735</v>
@@ -5363,28 +5363,28 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5490957328079</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M15" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N15" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O15" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P15" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q15" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R15" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
         <v>1401.269255187876</v>
@@ -5393,16 +5393,16 @@
         <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>990.206917319128</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W15" t="n">
-        <v>776.9737490554568</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X15" t="n">
-        <v>600.6477671943496</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y15" t="n">
-        <v>441.2458075581796</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>766.5997460790038</v>
+        <v>357.9572581315639</v>
       </c>
       <c r="C16" t="n">
-        <v>766.5997460790038</v>
+        <v>357.9572581315639</v>
       </c>
       <c r="D16" t="n">
-        <v>766.5997460790038</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="E16" t="n">
-        <v>629.0472404340999</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="F16" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G16" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I16" t="n">
         <v>31.21222238001735</v>
@@ -5439,7 +5439,7 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K16" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L16" t="n">
         <v>459.7441997875264</v>
@@ -5460,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V16" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="W16" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="X16" t="n">
-        <v>766.5997460790038</v>
+        <v>613.5286022632874</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.5997460790038</v>
+        <v>388.7929036520521</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2088.254281480102</v>
+        <v>951.1853479028</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.129690793372</v>
+        <v>951.1853479028</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.863997266186</v>
+        <v>951.1853479028</v>
       </c>
       <c r="E17" t="n">
-        <v>871.5237817830823</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F17" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962252</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N17" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1735.882321819541</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1352.12202095471</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>1352.12202095471</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>951.1853479028</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>704.723947463468</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>704.723947463468</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q18" t="n">
         <v>2088.254281480102</v>
@@ -5627,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>638.3066038351926</v>
+        <v>472.349712609228</v>
       </c>
       <c r="C19" t="n">
-        <v>467.2132313969092</v>
+        <v>472.349712609228</v>
       </c>
       <c r="D19" t="n">
-        <v>307.7185867198192</v>
+        <v>472.349712609228</v>
       </c>
       <c r="E19" t="n">
-        <v>307.7185867198192</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F19" t="n">
-        <v>307.7185867198192</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H19" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1532.838968225943</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1532.838968225943</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1250.040820772067</v>
       </c>
       <c r="V19" t="n">
-        <v>1048.817095773278</v>
+        <v>976.155075711589</v>
       </c>
       <c r="W19" t="n">
-        <v>1048.817095773278</v>
+        <v>697.0854112204634</v>
       </c>
       <c r="X19" t="n">
-        <v>810.4732336329616</v>
+        <v>697.0854112204634</v>
       </c>
       <c r="Y19" t="n">
-        <v>810.4732336329616</v>
+        <v>472.349712609228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>451.8896763163319</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="C20" t="n">
-        <v>41.76508562960203</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D20" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L20" t="n">
-        <v>41.76508562960203</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M20" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>1075.450954962252</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>1996.645384561082</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>1996.645384561082</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U20" t="n">
-        <v>1996.645384561082</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V20" t="n">
-        <v>1646.807829897563</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W20" t="n">
-        <v>1263.047529032731</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X20" t="n">
-        <v>1263.047529032731</v>
+        <v>1081.644098731082</v>
       </c>
       <c r="Y20" t="n">
-        <v>862.1108559808214</v>
+        <v>1081.644098731082</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>508.1659581184963</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N21" t="n">
-        <v>1541.851827451147</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O21" t="n">
-        <v>2058.694762117472</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P21" t="n">
-        <v>2058.694762117472</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5864,19 +5864,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1288.042607394784</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C22" t="n">
-        <v>1288.042607394784</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D22" t="n">
-        <v>1288.042607394784</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E22" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F22" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>2088.254281480102</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>2088.254281480102</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>1805.456134026226</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>1805.456134026226</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W22" t="n">
-        <v>1526.3864695351</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X22" t="n">
-        <v>1288.042607394784</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y22" t="n">
-        <v>1288.042607394784</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1270.693821706375</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="C23" t="n">
-        <v>860.5692310196448</v>
+        <v>854.9572996437093</v>
       </c>
       <c r="D23" t="n">
-        <v>456.1053011127053</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E23" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F23" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O23" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P23" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V23" t="n">
-        <v>2055.097520402254</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W23" t="n">
-        <v>1671.337219537422</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X23" t="n">
-        <v>1270.693821706375</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y23" t="n">
-        <v>1270.693821706375</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>751.4208778585604</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.263812524885</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N24" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O24" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P24" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q24" t="n">
         <v>2058.694762117472</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.3847151048558</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C25" t="n">
-        <v>749.2913426665723</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>589.7966979894823</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U25" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V25" t="n">
-        <v>1571.163982250452</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W25" t="n">
-        <v>1571.163982250452</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.820120110135</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y25" t="n">
-        <v>1108.0844214989</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1287.260303845748</v>
+        <v>1277.384018269584</v>
       </c>
       <c r="C26" t="n">
-        <v>877.1357131590178</v>
+        <v>867.259427582854</v>
       </c>
       <c r="D26" t="n">
-        <v>877.1357131590178</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E26" t="n">
         <v>462.7954976759145</v>
       </c>
       <c r="F26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L26" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M26" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P26" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q26" t="n">
         <v>2047.697635790537</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W26" t="n">
-        <v>2088.254281480102</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="X26" t="n">
-        <v>1688.196976897658</v>
+        <v>1482.28749656213</v>
       </c>
       <c r="Y26" t="n">
-        <v>1287.260303845748</v>
+        <v>1482.28749656213</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>704.723947463468</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M27" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O27" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>224.1971997769844</v>
+        <v>538.4003990889748</v>
       </c>
       <c r="C28" t="n">
-        <v>224.1971997769844</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D28" t="n">
-        <v>224.1971997769844</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E28" t="n">
-        <v>224.1971997769844</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>224.1971997769844</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U28" t="n">
-        <v>777.1526093285881</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="V28" t="n">
-        <v>503.2668642681101</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="W28" t="n">
-        <v>224.1971997769844</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="X28" t="n">
-        <v>224.1971997769844</v>
+        <v>950.8358040942545</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.1971997769844</v>
+        <v>726.1001054830192</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1274.958175906603</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="C29" t="n">
-        <v>864.8335852198732</v>
+        <v>1320.642131534332</v>
       </c>
       <c r="D29" t="n">
-        <v>864.8335852198732</v>
+        <v>916.1782016273924</v>
       </c>
       <c r="E29" t="n">
-        <v>450.4933697367699</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F29" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L29" t="n">
-        <v>558.6080202959272</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M29" t="n">
-        <v>1075.450954962252</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N29" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X29" t="n">
-        <v>2086.116028623002</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y29" t="n">
-        <v>1685.179355571093</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>558.6080202959272</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.450954962252</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.566882129793</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O30" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q30" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6575,19 +6575,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U30" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1050.354217106305</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>879.2608446680219</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>719.7661999909319</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M31" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N31" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O31" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P31" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>2088.254281480102</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.254281480102</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1980.203148743027</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1701.133484251902</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>1462.789622111585</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>1238.05392350035</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1678.033101815612</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.908511128882</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="D32" t="n">
-        <v>863.4445812219428</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="E32" t="n">
-        <v>449.1043657388395</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>175.4950568153513</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>175.4950568153513</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L32" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M32" t="n">
-        <v>812.7934917636815</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N32" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O32" t="n">
-        <v>1846.479361096332</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y32" t="n">
-        <v>2088.254281480102</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
@@ -6785,19 +6785,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M33" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N33" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O33" t="n">
-        <v>2058.694762117472</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P33" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q33" t="n">
         <v>2058.694762117472</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1048.817095773278</v>
+        <v>733.9929469847658</v>
       </c>
       <c r="C34" t="n">
-        <v>877.7237233349947</v>
+        <v>562.8995745464823</v>
       </c>
       <c r="D34" t="n">
-        <v>718.2290786579047</v>
+        <v>403.4049298693923</v>
       </c>
       <c r="E34" t="n">
-        <v>557.3182635262242</v>
+        <v>242.4941147377118</v>
       </c>
       <c r="F34" t="n">
-        <v>392.6871376368155</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G34" t="n">
-        <v>225.4367465623589</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H34" t="n">
-        <v>75.82929136781553</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6885,25 +6885,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T34" t="n">
-        <v>1331.615243227154</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U34" t="n">
-        <v>1048.817095773278</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V34" t="n">
-        <v>1048.817095773278</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W34" t="n">
-        <v>1048.817095773278</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X34" t="n">
-        <v>1048.817095773278</v>
+        <v>1146.428351990045</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.817095773278</v>
+        <v>921.6926533788102</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>451.8896763163319</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="C35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N35" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="O35" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P35" t="n">
         <v>2047.697635790537</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V35" t="n">
-        <v>2047.45122772861</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W35" t="n">
-        <v>1663.690926863779</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X35" t="n">
-        <v>1263.047529032731</v>
+        <v>872.9200883626444</v>
       </c>
       <c r="Y35" t="n">
-        <v>862.1108559808214</v>
+        <v>872.9200883626444</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>558.6080202959272</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M36" t="n">
-        <v>1075.450954962252</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N36" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O36" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P36" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q36" t="n">
         <v>2058.694762117472</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7122,25 +7122,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T37" t="n">
-        <v>1331.615243227154</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="U37" t="n">
-        <v>1331.615243227154</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="V37" t="n">
-        <v>1331.615243227154</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.615243227154</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="X37" t="n">
-        <v>1331.615243227154</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1354.656425951751</v>
+        <v>329.8871952877319</v>
       </c>
       <c r="C38" t="n">
-        <v>1354.656425951751</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D38" t="n">
-        <v>950.1924960448116</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E38" t="n">
-        <v>535.8522805617083</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F38" t="n">
-        <v>114.8218685153959</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>295.9505570973564</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M38" t="n">
-        <v>295.9505570973564</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N38" t="n">
-        <v>692.8507596625946</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P38" t="n">
         <v>1726.536628995245</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.416726816582</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>1354.656425951751</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X38" t="n">
-        <v>1354.656425951751</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y38" t="n">
-        <v>1354.656425951751</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>41.76508562960204</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M39" t="n">
-        <v>558.6080202959272</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N39" t="n">
-        <v>1075.450954962252</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O39" t="n">
-        <v>1592.293889628578</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.850297433488</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q39" t="n">
         <v>2058.694762117472</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C40" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.094317759326</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1292.094317759326</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y40" t="n">
-        <v>1292.094317759326</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="C41" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="D41" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="E41" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959272</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959272</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962252</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N41" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>1887.851509413192</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>1538.013954749673</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>1154.253653884841</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X41" t="n">
-        <v>753.6102560537939</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y41" t="n">
-        <v>352.673583001884</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
         <v>234.5779431922353</v>
@@ -7496,22 +7496,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M42" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N42" t="n">
-        <v>690.384199457534</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O42" t="n">
-        <v>1207.227134123859</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P42" t="n">
-        <v>1724.070068790184</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q42" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7523,19 +7523,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U42" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>558.8553848592514</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="C43" t="n">
-        <v>558.8553848592514</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="D43" t="n">
-        <v>558.8553848592514</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8553848592514</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F43" t="n">
-        <v>558.8553848592514</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G43" t="n">
-        <v>558.8553848592514</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M43" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N43" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P43" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q43" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T43" t="n">
-        <v>1848.705542456804</v>
+        <v>1289.581081313026</v>
       </c>
       <c r="U43" t="n">
-        <v>1565.907395002928</v>
+        <v>1006.78293385915</v>
       </c>
       <c r="V43" t="n">
-        <v>1292.02164994245</v>
+        <v>1006.78293385915</v>
       </c>
       <c r="W43" t="n">
-        <v>1012.951985451324</v>
+        <v>1006.78293385915</v>
       </c>
       <c r="X43" t="n">
-        <v>774.6081233110078</v>
+        <v>768.4390717188338</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.8553848592514</v>
+        <v>543.7033731075985</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>128.1168483125289</v>
+        <v>696.6592611593518</v>
       </c>
       <c r="C44" t="n">
-        <v>128.1168483125289</v>
+        <v>696.6592611593518</v>
       </c>
       <c r="D44" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E44" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F44" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
         <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
@@ -7654,13 +7654,13 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N44" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O44" t="n">
         <v>1209.69369432892</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1730.766722221061</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U44" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V44" t="n">
-        <v>1123.868675817052</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W44" t="n">
-        <v>740.1083749522209</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X44" t="n">
-        <v>339.4649771211734</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="Y44" t="n">
-        <v>128.1168483125289</v>
+        <v>696.6592611593518</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N45" t="n">
-        <v>1221.566882129793</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O45" t="n">
-        <v>1221.566882129793</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7836,22 +7836,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U46" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V46" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W46" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X46" t="n">
-        <v>257.5178240813579</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M2" t="n">
-        <v>143.274198161504</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>235.4543516735777</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>235.7430926998116</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>422.5591119693192</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130616</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>169.9599452705676</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O5" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348322</v>
+        <v>437.1312460864413</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>207.5219475226693</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130616</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>101.9299556837396</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -8473,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>166.7035252126741</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>207.5219475226693</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>272.5201416453126</v>
       </c>
       <c r="L11" t="n">
-        <v>428.9081203589469</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M11" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P11" t="n">
-        <v>483.802143031101</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M12" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>397.7243241008974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>57.751479</v>
@@ -8789,10 +8789,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L14" t="n">
-        <v>485.6381778130616</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>426.6124979218852</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9008,16 +9008,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>205.8849923335184</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M15" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N15" t="n">
-        <v>443.3461731439668</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
@@ -9029,7 +9029,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O17" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
         <v>93.64936328088416</v>
@@ -9187,7 +9187,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>265.359579940715</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380563</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>228.7885022587805</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P20" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>527.2265162238735</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>594.1598684051006</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>334.1030092285466</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
         <v>93.18977562578313</v>
@@ -9895,7 +9895,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>265.359579940715</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N29" t="n">
-        <v>552.9160747585985</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>564.2543476875381</v>
       </c>
       <c r="N30" t="n">
-        <v>200.7852390175286</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270709</v>
+        <v>553.2940084590249</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>337.8664545776215</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,22 +10433,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>395.5690244730511</v>
+        <v>564.2543476875383</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10588,22 +10588,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>298.7361805822438</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N35" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>578.1780941808745</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>528.8634714130245</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10825,22 +10825,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>493.821586277062</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>171.9933802602894</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>292.3871721926164</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N41" t="n">
-        <v>593.8823835359368</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11083,7 +11083,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,19 +11302,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>493.821586277062</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958086</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P44" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11381,25 +11381,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>72.04887768380517</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.2267367824296</v>
+        <v>62.47239946385355</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964572</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -22600,7 +22600,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173965</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.26016951102974</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22707,10 +22707,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -22719,13 +22719,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>162.5995248529599</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>71.68033292071286</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,10 +22758,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C5" t="n">
-        <v>65.51165408031153</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D5" t="n">
-        <v>10.2665108576532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>20.04403357805541</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22801,10 +22801,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>52.99039544874586</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.597422304822089</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22874,13 +22874,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>103.8439266410487</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -22916,13 +22916,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>40.98329472565386</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>50.54991588006418</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762772</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C8" t="n">
-        <v>62.37677637587171</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>10.2661152624589</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23086,10 +23086,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520146</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173965</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>71.93090602479846</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>158.7936483093279</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.4119112422364</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.96618811762772</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>282.3611955884813</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>14.48822151587927</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>47.90646057737422</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.78688462364607</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
         <v>20.54110546596223</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.2386134699631</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2665108576532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>66.55024492428134</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F14" t="n">
-        <v>26.66732817563246</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>14.48822151587927</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>254.5259201915101</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23579,10 +23579,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E15" t="n">
-        <v>100.6379475717906</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>155.2954202648206</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>23.12472639190884</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>12.07625401595556</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>217.4753582655386</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.37774583031262</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>146.5860865546248</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>170.250069871924</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23986,10 +23986,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.23545650401054</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>29.26302454372831</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967736</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>190.1944901920875</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>313.5139856498147</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>93.42449318090682</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>183.6935154888947</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>203.2645243582243</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
@@ -24505,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5802323161174741</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>82.68617307340647</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>43.51662921623193</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>354.6355938709659</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24745,10 +24745,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>394.5200935242086</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1762662001697</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>13.55422061770417</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>175.4067409246674</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.3744564560839</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.45902175588574</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,7 +25165,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>305.9441559029074</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>273.6306733059708</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>131.0337910913497</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>209.7999067317757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>120.7824562183141</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>332.3147862091602</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.43728131980222</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>389.4606457633689</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>56.09114247684448</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25797,13 +25797,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>227.3340212852567</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.89313055788412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>145.3617142880746</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25882,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.6926588008328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884632</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477320.2130243666</v>
+        <v>477320.2130243665</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477320.2130243666</v>
+        <v>477320.2130243665</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>571064.8661635029</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571064.8661635026</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571064.8661635027</v>
+        <v>571064.8661635028</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571064.8661635029</v>
+        <v>571064.8661635027</v>
       </c>
     </row>
     <row r="13">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95419.15860937595</v>
+        <v>95419.15860937598</v>
       </c>
       <c r="C2" t="n">
-        <v>95419.15860937595</v>
+        <v>95419.15860937598</v>
       </c>
       <c r="D2" t="n">
-        <v>95419.15860937595</v>
+        <v>95419.158609376</v>
       </c>
       <c r="E2" t="n">
-        <v>95419.15860937597</v>
+        <v>95419.15860937598</v>
       </c>
       <c r="F2" t="n">
-        <v>95419.15860937597</v>
+        <v>95419.158609376</v>
       </c>
       <c r="G2" t="n">
         <v>114155.4085116631</v>
@@ -26337,16 +26337,16 @@
         <v>114155.4085116631</v>
       </c>
       <c r="J2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="K2" t="n">
         <v>114155.4085116631</v>
       </c>
       <c r="L2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="M2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="N2" t="n">
         <v>114155.4085116631</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36154.76904703025</v>
+        <v>36154.76904703026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>102081.1339049657</v>
+        <v>102081.1339049658</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31744.46367344756</v>
+        <v>31744.46367344758</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26450,16 +26450,16 @@
         <v>19747.62995624142</v>
       </c>
       <c r="M4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="N4" t="n">
         <v>19747.62995624142</v>
       </c>
       <c r="O4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
       <c r="P4" t="n">
-        <v>19747.62995624141</v>
+        <v>19747.62995624142</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57348.88900881318</v>
+        <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>57348.88900881318</v>
+        <v>57348.88900881319</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881318</v>
+        <v>57348.88900881319</v>
       </c>
       <c r="E5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="F5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109144.8350608198</v>
+        <v>-109978.4993360662</v>
       </c>
       <c r="C6" t="n">
-        <v>21604.33494741216</v>
+        <v>20770.67067216574</v>
       </c>
       <c r="D6" t="n">
-        <v>21604.33494741216</v>
+        <v>20770.67067216576</v>
       </c>
       <c r="E6" t="n">
-        <v>55231.93494741217</v>
+        <v>54398.27067216573</v>
       </c>
       <c r="F6" t="n">
-        <v>55231.93494741217</v>
+        <v>54398.27067216576</v>
       </c>
       <c r="G6" t="n">
-        <v>26511.54442989387</v>
+        <v>25834.01557049981</v>
       </c>
       <c r="H6" t="n">
-        <v>62666.3134769241</v>
+        <v>61988.78461753004</v>
       </c>
       <c r="I6" t="n">
-        <v>62666.31347692414</v>
+        <v>61988.78461753009</v>
       </c>
       <c r="J6" t="n">
-        <v>-39414.82042804165</v>
+        <v>-40092.3492874357</v>
       </c>
       <c r="K6" t="n">
-        <v>62666.31347692413</v>
+        <v>61988.78461753009</v>
       </c>
       <c r="L6" t="n">
-        <v>62666.31347692406</v>
+        <v>61988.78461753007</v>
       </c>
       <c r="M6" t="n">
-        <v>62666.31347692408</v>
+        <v>61988.78461753006</v>
       </c>
       <c r="N6" t="n">
-        <v>62666.31347692413</v>
+        <v>61988.78461753009</v>
       </c>
       <c r="O6" t="n">
-        <v>30921.84980347654</v>
+        <v>30244.32094408251</v>
       </c>
       <c r="P6" t="n">
-        <v>62666.31347692412</v>
+        <v>61988.78461753006</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M2" t="n">
-        <v>49.98397370445857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>179.6285688889623</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="M3" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>333.4227222961021</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>390.1527797502168</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O5" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>390.1527797502168</v>
+        <v>381.3054633018259</v>
       </c>
       <c r="L6" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>149.7704685226693</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M8" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.017664927120283</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502168</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>149.7704685226693</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="L11" t="n">
-        <v>333.4227222961021</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M11" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N11" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>390.1527797502168</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M12" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N12" t="n">
-        <v>344.5309307071474</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>333.4227222961021</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35728,16 +35728,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>149.7704685226693</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M15" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N15" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>209.2450561298659</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>500.9700927793174</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>276.3515302285466</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>209.2450561298659</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q27" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="N29" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="N30" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700254</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>244.2170912967374</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>338.0047407346337</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37308,22 +37308,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>203.250782519399</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>522.0635703700254</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37545,22 +37545,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N41" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38101,25 +38101,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>14.48459394538775</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
